--- a/src/Pickles/MIL_pickles/Output/AN210_TestScript_Desktop_Admin_System_FR_NFR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN210_TestScript_Desktop_Admin_System_FR_NFR.xlsx
@@ -15,8 +15,9 @@
     <x:sheet name="OPENIMAGE" sheetId="8" r:id="rId8"/>
     <x:sheet name="SHELLINTEGRATION" sheetId="9" r:id="rId9"/>
     <x:sheet name="UPDATECLIENT" sheetId="10" r:id="rId10"/>
-    <x:sheet name="DESKTOPUSAGEMETRICS" sheetId="11" r:id="rId11"/>
-    <x:sheet name="SUPPORTEDPLATFORM" sheetId="12" r:id="rId12"/>
+    <x:sheet name="USERACCOUNTLICENSING" sheetId="11" r:id="rId11"/>
+    <x:sheet name="DESKTOPUSAGEMETRICS" sheetId="12" r:id="rId12"/>
+    <x:sheet name="SUPPORTEDPLATFORM" sheetId="13" r:id="rId13"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <x:si>
     <x:t>CustomerWorkflowEU</x:t>
   </x:si>
@@ -732,6 +733,93 @@
   </x:si>
   <x:si>
     <x:t>I have not previously ignored an upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UserAccountLicensing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR, @FR043, @UR041, @Admin, @DesktopOnly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginEnabled</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR043-01, @UR041-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user account licensing is enabled on the store app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>there is no licence installed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I see the login window</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDisabled</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR043-02, @UR041-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user account licensing is disabled on the store app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I see the registration window</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoLicenceForInvalidUser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR043-03, @UR041-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I can see the login window</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I enter invalid username and password and press login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoLicenceForBlockedLicence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR043-04, @UR041-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a user account with a licence associated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence is blocked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I enter valid username and password and press login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoLicenceForExpiredLicence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR043-05, @UR041-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoLicenceForMaxMachines</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR043-06, @UR041-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence has no additional machine slots</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence is not activated on the current machine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LicenseByLogin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence has available machine slots</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence is not blocked</x:t>
   </x:si>
   <x:si>
     <x:t>DesktopUsageMetrics</x:t>
@@ -1264,7 +1352,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B12"/>
+  <x:dimension ref="A1:B13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1272,7 +1360,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -1316,18 +1404,23 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
-      <x:c r="A10" s="1" t="s">
-        <x:v>263</x:v>
+      <x:c r="B10" s="6" t="s">
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
-      <x:c r="B11" s="6" t="s">
-        <x:v>236</x:v>
+      <x:c r="A11" s="1" t="s">
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="B12" s="6" t="s">
-        <x:v>247</x:v>
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="B13" s="6" t="s">
+        <x:v>276</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1340,8 +1433,9 @@
     <x:hyperlink ref="B7" location="'OPENIMAGE'!A1" display="OpenImage"/>
     <x:hyperlink ref="B8" location="'SHELLINTEGRATION'!A1" display="ShellIntegration"/>
     <x:hyperlink ref="B9" location="'UPDATECLIENT'!A1" display="UpdateClient"/>
-    <x:hyperlink ref="B11" location="'DESKTOPUSAGEMETRICS'!A1" display="DesktopUsageMetrics"/>
-    <x:hyperlink ref="B12" location="'SUPPORTEDPLATFORM'!A1" display="SupportedPlatform"/>
+    <x:hyperlink ref="B10" location="'USERACCOUNTLICENSING'!A1" display="UserAccountLicensing"/>
+    <x:hyperlink ref="B12" location="'DESKTOPUSAGEMETRICS'!A1" display="DesktopUsageMetrics"/>
+    <x:hyperlink ref="B13" location="'SUPPORTEDPLATFORM'!A1" display="SupportedPlatform"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -3925,7 +4019,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D19"/>
+  <x:dimension ref="A1:D69"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3980,7 +4074,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -3988,12 +4082,12 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -4001,7 +4095,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -4010,7 +4104,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -4026,7 +4120,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -4035,6 +4129,298 @@
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="B21" s="1" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="B22" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4"/>
+    <x:row r="25" spans="1:4">
+      <x:c r="B25" s="1" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4"/>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="B31" s="1" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="B32" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4"/>
+    <x:row r="34" spans="1:4">
+      <x:c r="C34" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="C35" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="C36" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="C37" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="C38" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="B40" s="1" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="B41" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4"/>
+    <x:row r="43" spans="1:4">
+      <x:c r="C43" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="C44" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="C45" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="C46" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="C47" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="B49" s="1" t="s">
+        <x:v>258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="B50" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4"/>
+    <x:row r="52" spans="1:4">
+      <x:c r="C52" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
+      <x:c r="C53" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="C54" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
+      <x:c r="C55" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4">
+      <x:c r="C56" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="C57" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4">
+      <x:c r="B59" s="1" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4">
+      <x:c r="B60" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4"/>
+    <x:row r="62" spans="1:4">
+      <x:c r="C62" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="C63" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="C64" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="C65" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="C66" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4">
+      <x:c r="C67" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4">
+      <x:c r="C68" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4">
+      <x:c r="C69" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4051,6 +4437,132 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
+  <x:dimension ref="A1:D19"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="B2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4"/>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="1" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="B14" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4"/>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheetc.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
   <x:dimension ref="A1:D27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
@@ -4059,7 +4571,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -4067,13 +4579,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4"/>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -4081,7 +4593,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>250</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -4090,7 +4602,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -4098,7 +4610,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -4106,7 +4618,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -4114,12 +4626,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -4127,7 +4639,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>256</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -4136,7 +4648,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -4144,7 +4656,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -4152,7 +4664,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -4160,12 +4672,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="B21" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -4173,7 +4685,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4"/>
@@ -4182,7 +4694,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
@@ -4190,7 +4702,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -4198,7 +4710,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -4206,7 +4718,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
